--- a/Sistema de creacion de nominas de eventos/a.xlsx
+++ b/Sistema de creacion de nominas de eventos/a.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,12 +499,12 @@
       <c r="B6" s="4" t="n"/>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>ALBORNOZ ALVAREZ  LUISA</t>
+          <t>AGUIRRE NÚÑEZ MARCO</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>9.428.537-2</t>
+          <t>13.856.226-3</t>
         </is>
       </c>
       <c r="E6" s="4" t="n"/>
@@ -516,15 +516,32 @@
       <c r="B7" s="4" t="n"/>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>ZAVALA REBECO MARÍA</t>
+          <t>BALBOA SAAVEDRA MARISEL</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>15.556.724-4</t>
+          <t>14.136.462-6</t>
         </is>
       </c>
       <c r="E7" s="4" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>BECERRA ESCOBAR JESÚS</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>15.558.102-6</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
